--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A171E2DB-F244-4987-A58F-B79E5202164E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88870FC-FA26-4E7F-AFC2-91C97CA81862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E3D0FD2-21B4-4975-80BE-598EF208C003}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -58,15 +58,6 @@
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <t>Работоспособность основного функционала приложения;</t>
-  </si>
-  <si>
-    <t>Авторизация (логин/пароль);</t>
-  </si>
-  <si>
-    <t>Валидация обязательных полей (граничные значения);</t>
   </si>
   <si>
     <t>Тестирование фильтров;</t>
@@ -94,9 +85,6 @@
   </si>
   <si>
     <t>Тестирование работы приложения в фоне;</t>
-  </si>
-  <si>
-    <t>Тестирование ссылок (политика конфиденциальности и прочие ссылки на документы);</t>
   </si>
   <si>
     <t>Тестирование удобства использования</t>
@@ -137,6 +125,33 @@
   </si>
   <si>
     <t>Работоспособность приложения на различных устройствах разных производителей;</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Авторизация (валидные/невалидные данные);</t>
+  </si>
+  <si>
+    <t>Регистрация нового пользователя (логин/пароль);</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Валидация обязательных полей;</t>
+  </si>
+  <si>
+    <t>Работоспособность основного функционала приложения (создание новости);</t>
+  </si>
+  <si>
+    <t>Работоспособность основного функционала приложения (редактирование новости);</t>
+  </si>
+  <si>
+    <t>Работоспособность основного функционала приложения (удаление новости);</t>
+  </si>
+  <si>
+    <t>Проверить, что пользователь может перемещаться между различными экранами приложения</t>
   </si>
 </sst>
 </file>
@@ -363,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -400,12 +415,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,19 +730,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0309058-1448-4B17-B54B-2E7A75B3EF38}">
-  <dimension ref="A1:Y969"/>
+  <dimension ref="A1:Y972"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +776,7 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -776,7 +786,9 @@
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -799,15 +811,17 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="13" t="s">
-        <v>6</v>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -830,15 +844,17 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="13" t="s">
-        <v>8</v>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -863,13 +879,15 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="13" t="s">
-        <v>9</v>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -892,15 +910,17 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="13" t="s">
-        <v>10</v>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -923,15 +943,17 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="13" t="s">
-        <v>11</v>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -954,15 +976,17 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="13" t="s">
-        <v>12</v>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -987,13 +1011,15 @@
     </row>
     <row r="9" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="13" t="s">
-        <v>13</v>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1016,15 +1042,17 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="13" t="s">
-        <v>14</v>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1047,15 +1075,17 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="13" t="s">
-        <v>15</v>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -1078,15 +1108,17 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13" t="s">
-        <v>16</v>
+    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="8" t="s">
+        <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>5</v>
+      <c r="C12" s="7" t="s">
+        <v>7</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1109,15 +1141,19 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row r="13" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:25" ht="40.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C13" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1140,15 +1176,17 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="13" t="s">
-        <v>18</v>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1171,15 +1209,17 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="13" t="s">
-        <v>19</v>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1202,15 +1242,17 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14" t="s">
-        <v>20</v>
+    <row r="16" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1233,17 +1275,17 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="1:25" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>21</v>
-      </c>
+    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -1266,7 +1308,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="5" t="s">
         <v>23</v>
@@ -1274,7 +1316,9 @@
       <c r="C18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1297,7 +1341,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
         <v>24</v>
@@ -1305,7 +1349,9 @@
       <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1328,7 +1374,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row r="20" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
         <v>25</v>
@@ -1336,7 +1382,9 @@
       <c r="C20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1359,7 +1407,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
     </row>
-    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="5" t="s">
         <v>26</v>
@@ -1367,7 +1415,9 @@
       <c r="C21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1390,7 +1440,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
     </row>
-    <row r="22" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="5" t="s">
         <v>27</v>
@@ -1398,7 +1448,9 @@
       <c r="C22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1421,15 +1473,17 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
     </row>
-    <row r="23" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -1452,15 +1506,17 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
     </row>
-    <row r="24" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1483,15 +1539,17 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="1:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="5" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1515,14 +1573,16 @@
       <c r="Y25" s="4"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="8" t="s">
-        <v>31</v>
+      <c r="A26" s="11"/>
+      <c r="B26" s="5" t="s">
+        <v>13</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1545,17 +1605,17 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="1:25" ht="40.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>32</v>
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="5" t="s">
+        <v>14</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>33</v>
+      <c r="C27" s="6" t="s">
+        <v>7</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>5</v>
+      <c r="D27" s="4" t="s">
+        <v>30</v>
       </c>
-      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1578,11 +1638,17 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1606,10 +1672,16 @@
       <c r="Y28" s="4"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -1632,11 +1704,19 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
     </row>
-    <row r="30" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+    <row r="30" spans="1:25" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -1659,7 +1739,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
     </row>
-    <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -27012,10 +27092,91 @@
       <c r="X969" s="4"/>
       <c r="Y969" s="4"/>
     </row>
+    <row r="970" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A970" s="4"/>
+      <c r="B970" s="4"/>
+      <c r="C970" s="4"/>
+      <c r="D970" s="4"/>
+      <c r="E970" s="4"/>
+      <c r="F970" s="4"/>
+      <c r="G970" s="4"/>
+      <c r="H970" s="4"/>
+      <c r="I970" s="4"/>
+      <c r="J970" s="4"/>
+      <c r="K970" s="4"/>
+      <c r="L970" s="4"/>
+      <c r="M970" s="4"/>
+      <c r="N970" s="4"/>
+      <c r="O970" s="4"/>
+      <c r="P970" s="4"/>
+      <c r="Q970" s="4"/>
+      <c r="R970" s="4"/>
+      <c r="S970" s="4"/>
+      <c r="T970" s="4"/>
+      <c r="U970" s="4"/>
+      <c r="V970" s="4"/>
+      <c r="W970" s="4"/>
+      <c r="X970" s="4"/>
+      <c r="Y970" s="4"/>
+    </row>
+    <row r="971" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A971" s="4"/>
+      <c r="B971" s="4"/>
+      <c r="C971" s="4"/>
+      <c r="D971" s="4"/>
+      <c r="E971" s="4"/>
+      <c r="F971" s="4"/>
+      <c r="G971" s="4"/>
+      <c r="H971" s="4"/>
+      <c r="I971" s="4"/>
+      <c r="J971" s="4"/>
+      <c r="K971" s="4"/>
+      <c r="L971" s="4"/>
+      <c r="M971" s="4"/>
+      <c r="N971" s="4"/>
+      <c r="O971" s="4"/>
+      <c r="P971" s="4"/>
+      <c r="Q971" s="4"/>
+      <c r="R971" s="4"/>
+      <c r="S971" s="4"/>
+      <c r="T971" s="4"/>
+      <c r="U971" s="4"/>
+      <c r="V971" s="4"/>
+      <c r="W971" s="4"/>
+      <c r="X971" s="4"/>
+      <c r="Y971" s="4"/>
+    </row>
+    <row r="972" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A972" s="4"/>
+      <c r="B972" s="4"/>
+      <c r="C972" s="4"/>
+      <c r="D972" s="4"/>
+      <c r="E972" s="4"/>
+      <c r="F972" s="4"/>
+      <c r="G972" s="4"/>
+      <c r="H972" s="4"/>
+      <c r="I972" s="4"/>
+      <c r="J972" s="4"/>
+      <c r="K972" s="4"/>
+      <c r="L972" s="4"/>
+      <c r="M972" s="4"/>
+      <c r="N972" s="4"/>
+      <c r="O972" s="4"/>
+      <c r="P972" s="4"/>
+      <c r="Q972" s="4"/>
+      <c r="R972" s="4"/>
+      <c r="S972" s="4"/>
+      <c r="T972" s="4"/>
+      <c r="U972" s="4"/>
+      <c r="V972" s="4"/>
+      <c r="W972" s="4"/>
+      <c r="X972" s="4"/>
+      <c r="Y972" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
